--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Osm</t>
+  </si>
+  <si>
+    <t>Lifr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Osm</t>
-  </si>
-  <si>
-    <t>Lifr</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>16.84551633333333</v>
+        <v>0.133209</v>
       </c>
       <c r="H2">
-        <v>50.536549</v>
+        <v>0.399627</v>
       </c>
       <c r="I2">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="J2">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N2">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q2">
-        <v>443.2387765488978</v>
+        <v>5.161219337475</v>
       </c>
       <c r="R2">
-        <v>3989.14898894008</v>
+        <v>46.450974037275</v>
       </c>
       <c r="S2">
-        <v>0.08308274531041501</v>
+        <v>0.002482242084571412</v>
       </c>
       <c r="T2">
-        <v>0.083082745310415</v>
+        <v>0.002482242084571411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>16.84551633333333</v>
+        <v>0.133209</v>
       </c>
       <c r="H3">
-        <v>50.536549</v>
+        <v>0.399627</v>
       </c>
       <c r="I3">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="J3">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q3">
-        <v>905.3034564071361</v>
+        <v>7.158852583575</v>
       </c>
       <c r="R3">
-        <v>8147.731107664225</v>
+        <v>64.42967325217501</v>
       </c>
       <c r="S3">
-        <v>0.1696943058162575</v>
+        <v>0.003442985852425754</v>
       </c>
       <c r="T3">
-        <v>0.1696943058162575</v>
+        <v>0.003442985852425753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>16.84551633333333</v>
+        <v>0.133209</v>
       </c>
       <c r="H4">
-        <v>50.536549</v>
+        <v>0.399627</v>
       </c>
       <c r="I4">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="J4">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N4">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q4">
-        <v>241.0967077003994</v>
+        <v>2.315814709395</v>
       </c>
       <c r="R4">
-        <v>2169.870369303595</v>
+        <v>20.842332384555</v>
       </c>
       <c r="S4">
-        <v>0.04519229232833616</v>
+        <v>0.001113770284861029</v>
       </c>
       <c r="T4">
-        <v>0.04519229232833615</v>
+        <v>0.001113770284861029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>16.84551633333333</v>
+        <v>0.133209</v>
       </c>
       <c r="H5">
-        <v>50.536549</v>
+        <v>0.399627</v>
       </c>
       <c r="I5">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="J5">
-        <v>0.3673693131813943</v>
+        <v>0.00785440273405944</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N5">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q5">
-        <v>370.2424319168189</v>
+        <v>1.695435575118</v>
       </c>
       <c r="R5">
-        <v>3332.181887251371</v>
+        <v>15.258920176062</v>
       </c>
       <c r="S5">
-        <v>0.06939996972638568</v>
+        <v>0.000815404512201245</v>
       </c>
       <c r="T5">
-        <v>0.06939996972638568</v>
+        <v>0.000815404512201245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133209</v>
+        <v>16.82657833333333</v>
       </c>
       <c r="H6">
-        <v>0.399627</v>
+        <v>50.47973500000001</v>
       </c>
       <c r="I6">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="J6">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N6">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q6">
-        <v>3.50499165576</v>
+        <v>651.9504048340417</v>
       </c>
       <c r="R6">
-        <v>31.54492490184001</v>
+        <v>5867.553643506375</v>
       </c>
       <c r="S6">
-        <v>0.0006569919972209661</v>
+        <v>0.3135496916750181</v>
       </c>
       <c r="T6">
-        <v>0.0006569919972209662</v>
+        <v>0.3135496916750181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133209</v>
+        <v>16.82657833333333</v>
       </c>
       <c r="H7">
-        <v>0.399627</v>
+        <v>50.47973500000001</v>
       </c>
       <c r="I7">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="J7">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q7">
-        <v>7.158852583575</v>
+        <v>904.2856997223195</v>
       </c>
       <c r="R7">
-        <v>64.42967325217501</v>
+        <v>8138.571297500876</v>
       </c>
       <c r="S7">
-        <v>0.001341888745716165</v>
+        <v>0.4349080853876269</v>
       </c>
       <c r="T7">
-        <v>0.001341888745716166</v>
+        <v>0.4349080853876268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.133209</v>
+        <v>16.82657833333333</v>
       </c>
       <c r="H8">
-        <v>0.399627</v>
+        <v>50.47973500000001</v>
       </c>
       <c r="I8">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="J8">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N8">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q8">
-        <v>1.906516291965</v>
+        <v>292.5270635851973</v>
       </c>
       <c r="R8">
-        <v>17.158646627685</v>
+        <v>2632.743572266776</v>
       </c>
       <c r="S8">
-        <v>0.0003573663133645313</v>
+        <v>0.1406882638827188</v>
       </c>
       <c r="T8">
-        <v>0.0003573663133645314</v>
+        <v>0.1406882638827188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.133209</v>
+        <v>16.82657833333333</v>
       </c>
       <c r="H9">
-        <v>0.399627</v>
+        <v>50.47973500000001</v>
       </c>
       <c r="I9">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="J9">
-        <v>0.002905040004190652</v>
+        <v>0.9921455972659405</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N9">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q9">
-        <v>2.927759715836999</v>
+        <v>214.1625529344344</v>
       </c>
       <c r="R9">
-        <v>26.349837442533</v>
+        <v>1927.46297640991</v>
       </c>
       <c r="S9">
-        <v>0.0005487929478889889</v>
+        <v>0.1029995563205767</v>
       </c>
       <c r="T9">
-        <v>0.0005487929478889889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>28.87572066666666</v>
-      </c>
-      <c r="H10">
-        <v>86.62716199999998</v>
-      </c>
-      <c r="I10">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="J10">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>26.31197333333334</v>
-      </c>
-      <c r="N10">
-        <v>78.93592000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.2261559208386891</v>
-      </c>
-      <c r="P10">
-        <v>0.2261559208386891</v>
-      </c>
-      <c r="Q10">
-        <v>759.7771921621156</v>
-      </c>
-      <c r="R10">
-        <v>6837.994729459039</v>
-      </c>
-      <c r="S10">
-        <v>0.1424161835310531</v>
-      </c>
-      <c r="T10">
-        <v>0.1424161835310531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>28.87572066666666</v>
-      </c>
-      <c r="H11">
-        <v>86.62716199999998</v>
-      </c>
-      <c r="I11">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="J11">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>53.74150833333334</v>
-      </c>
-      <c r="N11">
-        <v>161.224525</v>
-      </c>
-      <c r="O11">
-        <v>0.461917475759518</v>
-      </c>
-      <c r="P11">
-        <v>0.461917475759518</v>
-      </c>
-      <c r="Q11">
-        <v>1551.824782838672</v>
-      </c>
-      <c r="R11">
-        <v>13966.42304554805</v>
-      </c>
-      <c r="S11">
-        <v>0.2908812811975444</v>
-      </c>
-      <c r="T11">
-        <v>0.2908812811975443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>28.87572066666666</v>
-      </c>
-      <c r="H12">
-        <v>86.62716199999998</v>
-      </c>
-      <c r="I12">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="J12">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>14.31221833333333</v>
-      </c>
-      <c r="N12">
-        <v>42.936655</v>
-      </c>
-      <c r="O12">
-        <v>0.123015969779767</v>
-      </c>
-      <c r="P12">
-        <v>0.123015969779767</v>
-      </c>
-      <c r="Q12">
-        <v>413.2756187136789</v>
-      </c>
-      <c r="R12">
-        <v>3719.48056842311</v>
-      </c>
-      <c r="S12">
-        <v>0.07746631113806629</v>
-      </c>
-      <c r="T12">
-        <v>0.07746631113806629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.87572066666666</v>
-      </c>
-      <c r="H13">
-        <v>86.62716199999998</v>
-      </c>
-      <c r="I13">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="J13">
-        <v>0.629725646814415</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>21.978693</v>
-      </c>
-      <c r="N13">
-        <v>65.93607899999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1889106336220259</v>
-      </c>
-      <c r="P13">
-        <v>0.1889106336220259</v>
-      </c>
-      <c r="Q13">
-        <v>634.6505996864219</v>
-      </c>
-      <c r="R13">
-        <v>5711.855397177796</v>
-      </c>
-      <c r="S13">
-        <v>0.1189618709477512</v>
-      </c>
-      <c r="T13">
-        <v>0.1189618709477512</v>
+        <v>0.1029995563205767</v>
       </c>
     </row>
   </sheetData>
